--- a/xlsx_files/Race13.xlsx
+++ b/xlsx_files/Race13.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_project\xlsx_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_new\xlsx_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A251F0-05A9-4819-8F34-0D93063849EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574C5CD8-56F4-4496-A774-5BA917D1642D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3360" windowWidth="18516" windowHeight="8892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="672" yWindow="8004" windowWidth="26904" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Track Name</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>Brands Hatch</t>
+  </si>
+  <si>
+    <t>01:28.6950</t>
   </si>
 </sst>
 </file>
@@ -613,7 +616,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -680,13 +683,19 @@
         <v>36</v>
       </c>
       <c r="E2" s="1">
-        <v>44503</v>
+        <v>44496</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="J2" t="s">
         <v>35</v>
